--- a/bot3/invoice_template.xlsx
+++ b/bot3/invoice_template.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mayour.Shekhar\My Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F9EB1B-7E66-479D-9295-AA33699186D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E495A2CF-DC2E-48F8-A9B1-054588947EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C89CB3BE-734E-4E40-BA09-E09DD4D4FD1B}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="16536" windowHeight="9420" xr2:uid="{C89CB3BE-734E-4E40-BA09-E09DD4D4FD1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>Company</t>
   </si>
@@ -64,17 +58,156 @@
   </si>
   <si>
     <t>Payment Terms</t>
+  </si>
+  <si>
+    <t>Staples</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>James</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Printing and Copying</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due on Receipt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clear front covers</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black rear covers</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Color copies (pages 1-2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black and white copies</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lenovo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bart</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">New Laptops </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lenovo Thinkpad T480</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lenovo USB-3 Docks</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASUS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stuart</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">New Monitors </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASUS 27” HD HDMI monitors</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASUS 13” USB monitors</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoffeeTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charles</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffee Services </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coffee Services for May 2019</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hewlett</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shanique</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Toner Cartridges </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cyan Toner</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yellow Toner</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magenta Toner</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black Toner (high capacity)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xerox</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isabella</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Copier Supplies </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuser for 5650</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roller replacement kit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -82,7 +215,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -95,6 +228,13 @@
       <sz val="11"/>
       <color rgb="FF0D0D0D"/>
       <name val="MicrosoftSansSerif"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -111,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -121,13 +261,43 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -138,22 +308,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -169,7 +360,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -465,180 +656,589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E896937E-F241-404B-9FFF-EFFB80FFB916}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="6"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43591</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8675309</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5">
+        <v>43622</v>
+      </c>
+      <c r="H2" s="4">
+        <v>100</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="K2" s="6">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5">
+        <v>43591</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8675309</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5">
+        <v>43622</v>
+      </c>
+      <c r="H3" s="7">
+        <v>100</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="K3" s="6">
+        <v>99</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43591</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8675309</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5">
+        <v>43622</v>
+      </c>
+      <c r="H4" s="7">
+        <v>100</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2.99</v>
+      </c>
+      <c r="K4" s="8">
+        <v>299</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43591</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8675309</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5">
+        <v>43622</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="8">
+        <v>250</v>
+      </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5">
+        <v>43590</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8675310</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5">
+        <v>43621</v>
+      </c>
+      <c r="H6" s="7">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6">
+        <v>768</v>
+      </c>
+      <c r="K6" s="6">
+        <v>7680</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43590</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8675310</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5">
+        <v>43621</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="6">
+        <v>199</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1990</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43589</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8675311</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5">
+        <v>43620</v>
+      </c>
+      <c r="H8" s="4">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="6">
+        <v>199</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1990</v>
+      </c>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5">
+        <v>43589</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8675311</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5">
+        <v>43620</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="6">
+        <v>99</v>
+      </c>
+      <c r="K9" s="6">
+        <v>990</v>
+      </c>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43588</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8675312</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5">
+        <v>43619</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="6">
+        <v>99</v>
+      </c>
+      <c r="K10" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="9">
+        <v>43587</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8675313</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9">
+        <v>43618</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="6">
+        <v>99</v>
+      </c>
+      <c r="K11" s="6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="9">
+        <v>43587</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8675313</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9">
+        <v>43618</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="6">
+        <v>99</v>
+      </c>
+      <c r="K12" s="6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="9">
+        <v>43587</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8675313</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="9">
+        <v>43618</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="6">
+        <v>99</v>
+      </c>
+      <c r="K13" s="6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="9">
+        <v>43587</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8675313</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="9">
+        <v>43618</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="6">
+        <v>199</v>
+      </c>
+      <c r="K14" s="6">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="9">
+        <v>43586</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8675314</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="9">
+        <v>43617</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="6">
+        <v>249</v>
+      </c>
+      <c r="K15" s="6">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="11">
+        <v>43586</v>
+      </c>
+      <c r="C16" s="10">
+        <v>8675314</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="11">
+        <v>43617</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="12">
+        <v>99</v>
+      </c>
+      <c r="K16" s="12">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/bot3/invoice_template.xlsx
+++ b/bot3/invoice_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E495A2CF-DC2E-48F8-A9B1-054588947EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317A0A2B-3AEC-4C7D-B2E6-1E8B29EF927A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="16536" windowHeight="9420" xr2:uid="{C89CB3BE-734E-4E40-BA09-E09DD4D4FD1B}"/>
   </bookViews>
@@ -251,42 +251,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -308,38 +278,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -678,562 +639,562 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>43591</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>8675309</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7">
         <v>43622</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>100</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>0.49</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>43591</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>8675309</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7">
         <v>43622</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>100</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>0.99</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>43591</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>8675309</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7">
         <v>43622</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>100</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>2.99</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="9">
         <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>43591</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>8675309</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7">
         <v>43622</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>1000</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>0.25</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="9">
         <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>43590</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>8675310</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7">
         <v>43621</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>10</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>768</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>7680</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>43590</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>8675310</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7">
         <v>43621</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>10</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>199</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>1990</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>43589</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>8675311</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7">
         <v>43620</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>10</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>199</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>1990</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>43589</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>8675311</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7">
         <v>43620</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>10</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>99</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>990</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>43588</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>8675312</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7">
         <v>43619</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>99</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="4">
         <v>43587</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>8675313</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4">
         <v>43618</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>2</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>99</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="4">
         <v>43587</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>8675313</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4">
         <v>43618</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>99</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="4">
         <v>43587</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>8675313</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="4">
         <v>43618</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>99</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="4">
         <v>43587</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>8675313</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4">
         <v>43618</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>199</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="4">
         <v>43586</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>8675314</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4">
         <v>43617</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>249</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="4">
         <v>43586</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="3">
         <v>8675314</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4">
         <v>43617</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="3">
         <v>1</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="5">
         <v>99</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="5">
         <v>99</v>
       </c>
     </row>

--- a/bot3/invoice_template.xlsx
+++ b/bot3/invoice_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317A0A2B-3AEC-4C7D-B2E6-1E8B29EF927A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA7F029-AFCA-4E99-B62D-53097D698EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="16536" windowHeight="9420" xr2:uid="{C89CB3BE-734E-4E40-BA09-E09DD4D4FD1B}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="16536" windowHeight="9420" xr2:uid="{C89CB3BE-734E-4E40-BA09-E09DD4D4FD1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,25 +283,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
